--- a/classfiers/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3992805755395684</v>
+        <v>0.9953917050691244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4847161572052402</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4378698224852071</v>
+        <v>0.9664429530201343</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2495158534269983</v>
+        <v>0.9791831357048749</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4365671641791045</v>
+        <v>0.8938775510204081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5109170305676856</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4708249496981891</v>
+        <v>0.9201680672268906</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3094740839187393</v>
+        <v>0.9780726519856955</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.9282700421940928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3304347826086956</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3179916317991631</v>
+        <v>0.9421841541755889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2316309094361116</v>
+        <v>0.9847448015122873</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4438502673796791</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3608695652173913</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3980815347721823</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5053920637934307</v>
+        <v>0.97882797731569</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3873626373626374</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6157205240174672</v>
+        <v>0.9826086956521739</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4755480607082631</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04298163650578743</v>
+        <v>0.9983931947069943</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.394702451472843</v>
+        <v>0.9546189707678362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4605316119232959</v>
+        <v>0.9522190852625636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4200631998926009</v>
+        <v>0.9530156379305994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2677989094162135</v>
+        <v>0.9838443522451085</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9953917050691244</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9391304347826087</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9664429530201343</v>
+        <v>0.8430913348946135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9791831357048749</v>
+        <v>0.8981791155704199</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8938775510204081</v>
+        <v>0.8660287081339713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.948051948051948</v>
+        <v>0.8743961352657005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9201680672268906</v>
+        <v>0.8701923076923077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9780726519856955</v>
+        <v>0.9366406540319584</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9282700421940928</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8894230769230769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9421841541755889</v>
+        <v>0.8545034642032332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9847448015122873</v>
+        <v>0.9151802303976216</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.945054945054945</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97882797731569</v>
+        <v>0.8560247120029729</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9693877551020408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9826086956521739</v>
+        <v>0.9178743961352657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9429280397022332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9983931947069943</v>
+        <v>0.9952157576606222</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9546189707678362</v>
+        <v>0.8233194405338358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9522190852625636</v>
+        <v>0.9006363805276848</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9530156379305994</v>
+        <v>0.8553345186601795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9838443522451085</v>
+        <v>0.920248093932719</v>
       </c>
     </row>
   </sheetData>
